--- a/results/Temp Results/gamm_temp_smoothers.xlsx
+++ b/results/Temp Results/gamm_temp_smoothers.xlsx
@@ -398,13 +398,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>12.8768686057292</v>
+        <v>12.8160071017062</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>2659.73739479845</v>
+        <v>2581.94398428306</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -415,13 +415,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>12.8602716730663</v>
+        <v>12.8265265956532</v>
       </c>
       <c r="C3" t="n">
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2310.01466646852</v>
+        <v>2252.98315731745</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -432,13 +432,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>12.6781411013472</v>
+        <v>12.6149752281368</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>797.178199463418</v>
+        <v>785.833937518773</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -449,13 +449,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>5.91260790388379</v>
+        <v>5.91071003380408</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>453.402033160454</v>
+        <v>465.691023207654</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -466,13 +466,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>7.73386949875036</v>
+        <v>7.73023881095466</v>
       </c>
       <c r="C6" t="n">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>399.217303383457</v>
+        <v>424.89906260942</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>2.97729176702893</v>
+        <v>2.97744620885537</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>738.889522632253</v>
+        <v>776.260737700715</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
